--- a/admin/results/Embedded C BasicResults.xlsx
+++ b/admin/results/Embedded C BasicResults.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>Embedded C Basic</t>
   </si>
@@ -86,40 +86,49 @@
     <t>04 May 2023, 12:36:01 PM</t>
   </si>
   <si>
+    <t>Sridhar Reddy</t>
+  </si>
+  <si>
+    <t>S338-571-938</t>
+  </si>
+  <si>
+    <t>01 January 2024, 02:16:22 PM</t>
+  </si>
+  <si>
+    <t>Mamatha D</t>
+  </si>
+  <si>
+    <t>S828-813-487</t>
+  </si>
+  <si>
+    <t>29 March 2023, 10:31:56 AM</t>
+  </si>
+  <si>
+    <t>Navin Krishnamurthy</t>
+  </si>
+  <si>
+    <t>S919-769-614</t>
+  </si>
+  <si>
+    <t>09 March 2023, 12:16:07 PM</t>
+  </si>
+  <si>
+    <t>Tejaswini Krishnamoorthy</t>
+  </si>
+  <si>
+    <t>S263-581-544</t>
+  </si>
+  <si>
+    <t>04 May 2023, 12:16:59 PM</t>
+  </si>
+  <si>
     <t>Test1 Test1</t>
   </si>
   <si>
     <t>S293-208-625</t>
   </si>
   <si>
-    <t>22 November 2023, 08:05:57 AM</t>
-  </si>
-  <si>
-    <t>Mamatha D</t>
-  </si>
-  <si>
-    <t>S828-813-487</t>
-  </si>
-  <si>
-    <t>29 March 2023, 10:31:56 AM</t>
-  </si>
-  <si>
-    <t>Navin Krishnamurthy</t>
-  </si>
-  <si>
-    <t>S919-769-614</t>
-  </si>
-  <si>
-    <t>09 March 2023, 12:16:07 PM</t>
-  </si>
-  <si>
-    <t>Tejaswini Krishnamoorthy</t>
-  </si>
-  <si>
-    <t>S263-581-544</t>
-  </si>
-  <si>
-    <t>04 May 2023, 12:16:59 PM</t>
+    <t>01 January 2024, 07:56:56 AM</t>
   </si>
   <si>
     <t>Pushpa Lakshman</t>
@@ -476,7 +485,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,7 +519,7 @@
         <v>5</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -665,7 +674,7 @@
         <v>36</v>
       </c>
       <c r="C15">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D15" t="s">
         <v>14</v>
@@ -689,6 +698,23 @@
       </c>
       <c r="E16" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
